--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2076.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2076.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.157249421101378</v>
+        <v>1.260590672492981</v>
       </c>
       <c r="B1">
-        <v>3.4500420196547</v>
+        <v>3.857060432434082</v>
       </c>
       <c r="C1">
-        <v>3.881877880267243</v>
+        <v>3.449803113937378</v>
       </c>
       <c r="D1">
-        <v>3.486673875042552</v>
+        <v>3.702497005462646</v>
       </c>
       <c r="E1">
-        <v>1.188492992245658</v>
+        <v>1.189799904823303</v>
       </c>
     </row>
   </sheetData>
